--- a/data_handler/config_calc_amount(India)/1-statistic_config-phen 1day.xlsx
+++ b/data_handler/config_calc_amount(India)/1-statistic_config-phen 1day.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20370"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C796E3F-53D1-47DF-99A2-ADE95FFE0C5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71944D89-6DA4-4538-A8DE-5E8F4E323885}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="C2" s="28">
         <f ca="1">TODAY()</f>
-        <v>44208</v>
+        <v>44221</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>43</v>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B7" s="34" t="str">
         <f ca="1">TEXT('2.time process'!$C$2-6,"YYYY/mm/dd")</f>
-        <v>2021/01/06</v>
+        <v>2021/01/19</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>83</v>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B8" s="34" t="str">
         <f ca="1">TEXT('2.time process'!$C$2-5,"YYYY/mm/dd")</f>
-        <v>2021/01/07</v>
+        <v>2021/01/20</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>15</v>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="B9" s="34" t="str">
         <f ca="1">TEXT('2.time process'!$C$2-4,"YYYY/mm/dd")</f>
-        <v>2021/01/08</v>
+        <v>2021/01/21</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>15</v>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="B10" s="34" t="str">
         <f ca="1">TEXT('2.time process'!$C$2-3,"YYYY/mm/dd")</f>
-        <v>2021/01/09</v>
+        <v>2021/01/22</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>15</v>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="B11" s="34" t="str">
         <f ca="1">TEXT('2.time process'!$C$2-2,"YYYY/mm/dd")</f>
-        <v>2021/01/10</v>
+        <v>2021/01/23</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>15</v>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="B12" s="34" t="str">
         <f ca="1">TEXT('2.time process'!$C$2-1,"YYYY/mm/dd")</f>
-        <v>2021/01/11</v>
+        <v>2021/01/24</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>15</v>
